--- a/Lab2_SIMD/lab2实验数据.xlsx
+++ b/Lab2_SIMD/lab2实验数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7465DC9-B9F7-440C-80B8-0C33E4A3318C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0898C833-A891-4244-8AE4-ACF97509C148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16488" yWindow="0" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15516" yWindow="-60" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>SVS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>Bitmap_Neon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitmapSkip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:F31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -460,30 +464,33 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
       <c r="P2" t="s">
@@ -537,33 +544,36 @@
         <v>89.163399999999996</v>
       </c>
       <c r="E3">
-        <v>211.31100000000001</v>
+        <v>71.068399999999997</v>
       </c>
       <c r="F3">
+        <v>53.118099999999998</v>
+      </c>
+      <c r="G3">
         <v>90.9666</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>54.823900000000002</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>74.589299999999994</v>
       </c>
-      <c r="I3">
-        <v>45.604700000000001</v>
-      </c>
       <c r="J3">
+        <v>34.798499999999997</v>
+      </c>
+      <c r="K3">
         <v>30.536200000000001</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>46.5304</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>53.022500000000001</v>
       </c>
-      <c r="M3">
-        <v>39.183100000000003</v>
-      </c>
       <c r="N3">
+        <v>38.662300000000002</v>
+      </c>
+      <c r="O3">
         <v>32.28</v>
       </c>
       <c r="P3">
@@ -617,33 +627,36 @@
         <v>101.744</v>
       </c>
       <c r="E4">
-        <v>258.10300000000001</v>
+        <v>116.44199999999999</v>
       </c>
       <c r="F4">
+        <v>92.035399999999996</v>
+      </c>
+      <c r="G4">
         <v>105.432</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>84.733099999999993</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>103.5</v>
       </c>
-      <c r="I4">
-        <v>89.1828</v>
-      </c>
       <c r="J4">
+        <v>74.197199999999995</v>
+      </c>
+      <c r="K4">
         <v>51.125500000000002</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>77.066400000000002</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>90.525999999999996</v>
       </c>
-      <c r="M4">
-        <v>84.335800000000006</v>
-      </c>
       <c r="N4">
+        <v>71.833600000000004</v>
+      </c>
+      <c r="O4">
         <v>50.591900000000003</v>
       </c>
       <c r="P4">
@@ -697,33 +710,36 @@
         <v>196.273</v>
       </c>
       <c r="E5">
-        <v>481.53</v>
+        <v>231.00399999999999</v>
       </c>
       <c r="F5">
+        <v>190.72399999999999</v>
+      </c>
+      <c r="G5">
         <v>158.739</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>173.48099999999999</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>173.90600000000001</v>
       </c>
-      <c r="I5">
-        <v>179.12799999999999</v>
-      </c>
       <c r="J5">
+        <v>140.334</v>
+      </c>
+      <c r="K5">
         <v>94.158900000000003</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>138.80799999999999</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>164.20099999999999</v>
       </c>
-      <c r="M5">
-        <v>161.80000000000001</v>
-      </c>
       <c r="N5">
+        <v>140.11000000000001</v>
+      </c>
+      <c r="O5">
         <v>93.186899999999994</v>
       </c>
     </row>
@@ -738,33 +754,36 @@
         <v>300.91199999999998</v>
       </c>
       <c r="E6">
-        <v>541.28300000000002</v>
+        <v>314.73700000000002</v>
       </c>
       <c r="F6">
+        <v>258.43599999999998</v>
+      </c>
+      <c r="G6">
         <v>204.48099999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>249.48</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>268.89699999999999</v>
       </c>
-      <c r="I6">
-        <v>255.983</v>
-      </c>
       <c r="J6">
+        <v>218.41800000000001</v>
+      </c>
+      <c r="K6">
         <v>159.41399999999999</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>200.262</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>238.54300000000001</v>
       </c>
-      <c r="M6">
-        <v>250.78200000000001</v>
-      </c>
       <c r="N6">
+        <v>214.89699999999999</v>
+      </c>
+      <c r="O6">
         <v>156.08500000000001</v>
       </c>
     </row>
@@ -779,33 +798,36 @@
         <v>479.73899999999998</v>
       </c>
       <c r="E7">
-        <v>640.245</v>
+        <v>405.51400000000001</v>
       </c>
       <c r="F7">
+        <v>350.60300000000001</v>
+      </c>
+      <c r="G7">
         <v>349.30799999999999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>339.39499999999998</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>366.03500000000003</v>
       </c>
-      <c r="I7">
-        <v>370.89100000000002</v>
-      </c>
       <c r="J7">
+        <v>282.21899999999999</v>
+      </c>
+      <c r="K7">
         <v>197.27</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>276.255</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>366.90199999999999</v>
       </c>
-      <c r="M7">
-        <v>333.95</v>
-      </c>
       <c r="N7">
+        <v>274.39999999999998</v>
+      </c>
+      <c r="O7">
         <v>184.04499999999999</v>
       </c>
     </row>
@@ -820,33 +842,36 @@
         <v>683.51099999999997</v>
       </c>
       <c r="E8">
-        <v>1137.3699999999999</v>
+        <v>649.59500000000003</v>
       </c>
       <c r="F8">
+        <v>581.51099999999997</v>
+      </c>
+      <c r="G8">
         <v>546.99699999999996</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>524.41600000000005</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>573.87800000000004</v>
       </c>
-      <c r="I8">
-        <v>572.44600000000003</v>
-      </c>
       <c r="J8">
+        <v>429.67200000000003</v>
+      </c>
+      <c r="K8">
         <v>251.21899999999999</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>462.83199999999999</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>555.72799999999995</v>
       </c>
-      <c r="M8">
-        <v>521.18299999999999</v>
-      </c>
       <c r="N8">
+        <v>415.24799999999999</v>
+      </c>
+      <c r="O8">
         <v>273.68299999999999</v>
       </c>
     </row>
@@ -861,33 +886,36 @@
         <v>879.255</v>
       </c>
       <c r="E9">
-        <v>1247.48</v>
+        <v>807.10599999999999</v>
       </c>
       <c r="F9">
+        <v>705.86800000000005</v>
+      </c>
+      <c r="G9">
         <v>732.94</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>713.93100000000004</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>728.27</v>
       </c>
-      <c r="I9">
-        <v>733.59199999999998</v>
-      </c>
       <c r="J9">
+        <v>588.39099999999996</v>
+      </c>
+      <c r="K9">
         <v>366.779</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>565.31500000000005</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>696</v>
       </c>
-      <c r="M9">
-        <v>740.28800000000001</v>
-      </c>
       <c r="N9">
+        <v>574.53099999999995</v>
+      </c>
+      <c r="O9">
         <v>366.00900000000001</v>
       </c>
     </row>
@@ -902,33 +930,36 @@
         <v>1061.3399999999999</v>
       </c>
       <c r="E10">
-        <v>1374.88</v>
+        <v>977.05100000000004</v>
       </c>
       <c r="F10">
+        <v>829.07100000000003</v>
+      </c>
+      <c r="G10">
         <v>930.36500000000001</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>882.78200000000004</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>893.66800000000001</v>
       </c>
-      <c r="I10">
-        <v>917.26199999999994</v>
-      </c>
       <c r="J10">
-        <v>414.19</v>
+        <v>720.53</v>
       </c>
       <c r="K10">
+        <v>464.19</v>
+      </c>
+      <c r="L10">
         <v>721.32299999999998</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>845.25300000000004</v>
       </c>
-      <c r="M10">
-        <v>856.72500000000002</v>
-      </c>
       <c r="N10">
+        <v>697.125</v>
+      </c>
+      <c r="O10">
         <v>459.69</v>
       </c>
     </row>
